--- a/p_parameters/archive_parameters/Variables_ALG_DP_ROC20_July22.xlsx
+++ b/p_parameters/archive_parameters/Variables_ALG_DP_ROC20_July22.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cduransa/Documents/Utrecht/ROC20/WP3/CVM/Concepts/Codes/ROC20_27_July_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4882D0B-1E25-6A41-BC52-F05044D856B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="8_{B4882D0B-1E25-6A41-BC52-F05044D856B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE6DC8F-CB36-471F-8078-2FB17A57EC88}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1000" windowWidth="27640" windowHeight="15900" xr2:uid="{2506CD93-0285-9E44-BBDD-A2C4E77A0341}"/>
+    <workbookView xWindow="580" yWindow="1000" windowWidth="27640" windowHeight="15900" firstSheet="1" xr2:uid="{2506CD93-0285-9E44-BBDD-A2C4E77A0341}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
     <sheet name="ALG" sheetId="2" r:id="rId2"/>
     <sheet name="DrugProxies" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Variables!$A$1:$F$1</definedName>
+  </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="179">
   <si>
     <t>Varname</t>
   </si>
@@ -69,291 +73,300 @@
     <t>B_ITP_AESI</t>
   </si>
   <si>
+    <t>B_SICKLECELL_COV</t>
+  </si>
+  <si>
+    <t>B_SICKLECELLALGORITHM_COV</t>
+  </si>
+  <si>
+    <t>B_SPLACHNICVT_AESI</t>
+  </si>
+  <si>
+    <t>B_TP_AESI</t>
+  </si>
+  <si>
+    <t>B_TTS_AESI</t>
+  </si>
+  <si>
+    <t>C_AMI_AESI</t>
+  </si>
+  <si>
+    <t>C_ANGINA_AESI</t>
+  </si>
+  <si>
+    <t>C_ARRH_AESI</t>
+  </si>
+  <si>
+    <t>C_CAD_AESI</t>
+  </si>
+  <si>
+    <t>C_CARDIOCEREBROVASCULARDESE_COV</t>
+  </si>
+  <si>
+    <t>C_CARDIOMYOPATHY_COV</t>
+  </si>
+  <si>
+    <t>C_HF_COV</t>
+  </si>
+  <si>
+    <t>C_MYOCARD_AESI</t>
+  </si>
+  <si>
+    <t>C_PERICARD_AESI</t>
+  </si>
+  <si>
+    <t>C_VALVULAR_COV</t>
+  </si>
+  <si>
+    <t>D_ALCOHOLICLIVER_COV</t>
+  </si>
+  <si>
+    <t>D_Diverticulitis_AESI</t>
+  </si>
+  <si>
+    <t>D_GALLSTONES_COV</t>
+  </si>
+  <si>
+    <t>D_HEPATITISAUTOIMMUNE_COV</t>
+  </si>
+  <si>
+    <t>D_LIVERACUTE_AESI</t>
+  </si>
+  <si>
+    <t>D_LIVERCHRONIC_COV</t>
+  </si>
+  <si>
+    <t>D_LIVERCHRONICALONE_COV</t>
+  </si>
+  <si>
+    <t>D_LIVERCIRRHOSIS_COV</t>
+  </si>
+  <si>
+    <t>D_NONALCOHOLICLIVER_COV</t>
+  </si>
+  <si>
+    <t>D_PANCRACUTE_AESI</t>
+  </si>
+  <si>
+    <t>E_DM1_AESI</t>
+  </si>
+  <si>
+    <t>E_DM12_COV</t>
+  </si>
+  <si>
+    <t>E_DM12ALGORITHM_COV</t>
+  </si>
+  <si>
+    <t>E_GOUT_COV</t>
+  </si>
+  <si>
+    <t>E_THYROIDAUTOIMM_AESI</t>
+  </si>
+  <si>
+    <t>E_THYROIDSUBACUTE_AESI</t>
+  </si>
+  <si>
+    <t>G_KDCHRONIC_COV</t>
+  </si>
+  <si>
+    <t>G_KIACUTE_AESI</t>
+  </si>
+  <si>
+    <t>G_UTI_COV</t>
+  </si>
+  <si>
+    <t>I_AIDS_CH</t>
+  </si>
+  <si>
+    <t>I_CLOSTRIDIUMD_COV</t>
+  </si>
+  <si>
+    <t>I_COVID19DX_COV</t>
+  </si>
+  <si>
+    <t>I_COVID19HIST_COV</t>
+  </si>
+  <si>
+    <t>I_HIV_COV</t>
+  </si>
+  <si>
+    <t>I_INFLUENZA_COV</t>
+  </si>
+  <si>
+    <t>Im_ALLERGY_COV</t>
+  </si>
+  <si>
+    <t>Im_ANAPHYLAXIS_AESI</t>
+  </si>
+  <si>
+    <t>Im_ANAPHYLAXIS_COV</t>
+  </si>
+  <si>
+    <t>Im_HYPERSENS_AESI</t>
+  </si>
+  <si>
+    <t>Im_IMMUNODEF_COV</t>
+  </si>
+  <si>
+    <t>Im_IMMUNODEFWITHOUTHIV_COV</t>
+  </si>
+  <si>
+    <t>Im_INMUNODEFALLALGORITHM_COV</t>
+  </si>
+  <si>
+    <t>Im_KAWASAKI_AESI</t>
+  </si>
+  <si>
+    <t>Im_SJOGRENS_COV</t>
+  </si>
+  <si>
+    <t>L_OBESITY_COV</t>
+  </si>
+  <si>
+    <t>L_OBESITYALGORITHM_COV</t>
+  </si>
+  <si>
+    <t>M_FRACTURES_COV</t>
+  </si>
+  <si>
+    <t>M_OSTEOARTHRITIS_COV</t>
+  </si>
+  <si>
+    <t>M_OSTEOMYELITIS_COV</t>
+  </si>
+  <si>
+    <t>M_REACTIVEARTHRITIS_COV</t>
+  </si>
+  <si>
+    <t>M_RHABDOMYOLISIS_AESI</t>
+  </si>
+  <si>
+    <t>Ment_DEPRESSION_COV</t>
+  </si>
+  <si>
+    <t>Ment_MENTHEALTHDISEASEALGOR_COV</t>
+  </si>
+  <si>
+    <t>Ment_ORGPSYCHOSIS_COV</t>
+  </si>
+  <si>
+    <t>Ment_SCHIZOPHRENIA_COV</t>
+  </si>
+  <si>
+    <t>N_ADEM_AESI</t>
+  </si>
+  <si>
+    <t>N_BELLP_AESI</t>
+  </si>
+  <si>
+    <t>N_CONVULGEN_AESI</t>
+  </si>
+  <si>
+    <t>N_CVST_AESI</t>
+  </si>
+  <si>
+    <t>N_DEMENTIA_COV</t>
+  </si>
+  <si>
+    <t>N_GBS_AESI</t>
+  </si>
+  <si>
+    <t>N_HEARINGLOSS_AESI</t>
+  </si>
+  <si>
+    <t>N_MENINGOENC_AESI</t>
+  </si>
+  <si>
+    <t>N_MYELITISTRANSV_AESI</t>
+  </si>
+  <si>
+    <t>N_NARCOLEPSY_AESI</t>
+  </si>
+  <si>
     <t>N_STROKEHEMO_AESI</t>
   </si>
   <si>
-    <t>N_MENINGOENC_AESI</t>
-  </si>
-  <si>
-    <t>G_KDCHRONIC_COV</t>
-  </si>
-  <si>
-    <t>E_DM12ALGORITHM_COV</t>
-  </si>
-  <si>
-    <t>C_ANGINA_AESI</t>
-  </si>
-  <si>
-    <t>B_TTS_AESI</t>
-  </si>
-  <si>
-    <t>C_CARDIOCEREBROVASCULARDESE_COV</t>
-  </si>
-  <si>
-    <t>C_CARDIOMYOPATHY_COV</t>
-  </si>
-  <si>
-    <t>G_KIACUTE_AESI</t>
-  </si>
-  <si>
-    <t>B_SPLACHNICVT_AESI</t>
-  </si>
-  <si>
-    <t>C_VALVULAR_COV</t>
+    <t>N_STROKEISCH_AESI</t>
+  </si>
+  <si>
+    <t>N_TIA_AESI</t>
+  </si>
+  <si>
+    <t>N_TRIGEMINALNEURALGIA_COV</t>
+  </si>
+  <si>
+    <t>O_DEATHSUDDEN_AESI</t>
+  </si>
+  <si>
+    <t>O_DOWN_COV</t>
+  </si>
+  <si>
+    <t>O_MIS_AESI</t>
+  </si>
+  <si>
+    <t>Onc_ANYMALIGNANCY_COV</t>
+  </si>
+  <si>
+    <t>Onc_ANYMALIGNANCYALGORITHM_COV</t>
+  </si>
+  <si>
+    <t>R_ARDS_AESI</t>
+  </si>
+  <si>
+    <t>R_PE_AESI</t>
+  </si>
+  <si>
+    <t>R_RESPCHRONIC_COV</t>
   </si>
   <si>
     <t>R_RESPCHRONICALGORITHM_COV</t>
   </si>
   <si>
-    <t>D_Diverticulitis_AESI</t>
-  </si>
-  <si>
-    <t>D_GALLSTONES_COV</t>
-  </si>
-  <si>
-    <t>B_SICKLECELL_COV</t>
-  </si>
-  <si>
-    <t>N_GBS_AESI</t>
-  </si>
-  <si>
-    <t>D_PANCRACUTE_AESI</t>
-  </si>
-  <si>
-    <t>N_ADEM_AESI</t>
-  </si>
-  <si>
-    <t>E_DM12_COV</t>
-  </si>
-  <si>
-    <t>E_DM1_AESI</t>
-  </si>
-  <si>
-    <t>B_TP_AESI</t>
-  </si>
-  <si>
-    <t>E_GOUT_COV</t>
+    <t>Sk_ERYTHMULTI_AESI</t>
+  </si>
+  <si>
+    <t>Sk_SCAR_AESI</t>
+  </si>
+  <si>
+    <t>SO_ANOSMIAAGEUSIA_AESI</t>
+  </si>
+  <si>
+    <t>SO_CONJUNCTIVITIS_COV</t>
+  </si>
+  <si>
+    <t>SO_OTITISEXT_COV</t>
+  </si>
+  <si>
+    <t>TP_COVID19POS_COV</t>
+  </si>
+  <si>
+    <t>V_ANEURYSMVASCMALF_COV</t>
+  </si>
+  <si>
+    <t>V_CHILBLAIN_AESI</t>
   </si>
   <si>
     <t>V_MICROANGIO_AESI</t>
   </si>
   <si>
-    <t>C_MYOCARD_AESI</t>
-  </si>
-  <si>
-    <t>C_CAD_AESI</t>
-  </si>
-  <si>
-    <t>C_ARRH_AESI</t>
-  </si>
-  <si>
-    <t>D_LIVERACUTE_AESI</t>
-  </si>
-  <si>
-    <t>N_CONVULGEN_AESI</t>
-  </si>
-  <si>
-    <t>G_UTI_COV</t>
-  </si>
-  <si>
-    <t>Im_ANAPHYLAXIS_AESI</t>
-  </si>
-  <si>
-    <t>N_MYELITISTRANSV_AESI</t>
-  </si>
-  <si>
-    <t>N_CVST_AESI</t>
+    <t>V_RENOVASCULAR_COV</t>
+  </si>
+  <si>
+    <t>V_THROMBOSISARTERIAL_AESI</t>
+  </si>
+  <si>
+    <t>V_THROMBOSISARTERIALALGOR_AESI</t>
+  </si>
+  <si>
+    <t>V_VASCULITISSINGLEORG_AESI</t>
   </si>
   <si>
     <t>V_VTE_AESI</t>
   </si>
   <si>
-    <t>C_AMI_AESI</t>
-  </si>
-  <si>
-    <t>N_STROKEISCH_AESI</t>
-  </si>
-  <si>
-    <t>I_CLOSTRIDIUMD_COV</t>
-  </si>
-  <si>
-    <t>D_ALCOHOLICLIVER_COV</t>
-  </si>
-  <si>
-    <t>D_LIVERCHRONICALONE_COV</t>
-  </si>
-  <si>
-    <t>D_NONALCOHOLICLIVER_COV</t>
-  </si>
-  <si>
-    <t>I_INFLUENZA_COV</t>
-  </si>
-  <si>
-    <t>E_THYROIDAUTOIMM_AESI</t>
-  </si>
-  <si>
-    <t>E_THYROIDSUBACUTE_AESI</t>
-  </si>
-  <si>
-    <t>Im_HYPERSENS_AESI</t>
-  </si>
-  <si>
-    <t>O_DOWN_COV</t>
-  </si>
-  <si>
-    <t>Im_KAWASAKI_AESI</t>
-  </si>
-  <si>
-    <t>Im_SJOGRENS_COV</t>
-  </si>
-  <si>
-    <t>I_AIDS_CH</t>
-  </si>
-  <si>
-    <t>Onc_ANYMALIGNANCY_COV</t>
-  </si>
-  <si>
-    <t>N_BELLP_AESI</t>
-  </si>
-  <si>
-    <t>M_OSTEOMYELITIS_COV</t>
-  </si>
-  <si>
-    <t>M_RHABDOMYOLISIS_AESI</t>
-  </si>
-  <si>
-    <t>Ment_DEPRESSION_COV</t>
-  </si>
-  <si>
-    <t>Ment_ORGPSYCHOSIS_COV</t>
-  </si>
-  <si>
-    <t>N_HEARINGLOSS_AESI</t>
-  </si>
-  <si>
-    <t>D_HEPATITISAUTOIMMUNE_COV</t>
-  </si>
-  <si>
-    <t>N_NARCOLEPSY_AESI</t>
-  </si>
-  <si>
-    <t>V_THROMBOSISARTERIAL_AESI</t>
-  </si>
-  <si>
-    <t>N_DEMENTIA_COV</t>
-  </si>
-  <si>
-    <t>N_TRIGEMINALNEURALGIA_COV</t>
-  </si>
-  <si>
-    <t>O_DEATHSUDDEN_AESI</t>
-  </si>
-  <si>
-    <t>O_MIS_AESI</t>
-  </si>
-  <si>
-    <t>C_PERICARD_AESI</t>
-  </si>
-  <si>
-    <t>D_LIVERCIRRHOSIS_COV</t>
-  </si>
-  <si>
-    <t>M_FRACTURES_COV</t>
-  </si>
-  <si>
-    <t>M_OSTEOARTHRITIS_COV</t>
-  </si>
-  <si>
-    <t>M_REACTIVEARTHRITIS_COV</t>
-  </si>
-  <si>
-    <t>I_COVID19DX_COV</t>
-  </si>
-  <si>
-    <t>R_ARDS_AESI</t>
-  </si>
-  <si>
-    <t>R_RESPCHRONIC_COV</t>
-  </si>
-  <si>
-    <t>Sk_ERYTHMULTI_AESI</t>
-  </si>
-  <si>
-    <t>Sk_SCAR_AESI</t>
-  </si>
-  <si>
-    <t>SO_ANOSMIAAGEUSIA_AESI</t>
-  </si>
-  <si>
-    <t>SO_CONJUNCTIVITIS_COV</t>
-  </si>
-  <si>
-    <t>SO_OTITISEXT_COV</t>
-  </si>
-  <si>
-    <t>TP_COVID19POS_COV</t>
-  </si>
-  <si>
-    <t>V_ANEURYSMVASCMALF_COV</t>
-  </si>
-  <si>
-    <t>V_CHILBLAIN_AESI</t>
-  </si>
-  <si>
-    <t>Ment_SCHIZOPHRENIA_COV</t>
-  </si>
-  <si>
-    <t>V_RENOVASCULAR_COV</t>
-  </si>
-  <si>
-    <t>V_VASCULITISSINGLEORG_AESI</t>
-  </si>
-  <si>
-    <t>L_OBESITY_COV</t>
-  </si>
-  <si>
-    <t>Im_ANAPHYLAXIS_COV</t>
-  </si>
-  <si>
     <t>V_VTEALGORITHM_AESI</t>
   </si>
   <si>
-    <t>V_THROMBOSISARTERIALALGOR_AESI</t>
-  </si>
-  <si>
-    <t>D_LIVERCHRONIC_COV</t>
-  </si>
-  <si>
-    <t>Im_ALLERGY_COV</t>
-  </si>
-  <si>
-    <t>Onc_ANYMALIGNANCYALGORITHM_COV</t>
-  </si>
-  <si>
-    <t>Ment_MENTHEALTHDISEASEALGOR_COV</t>
-  </si>
-  <si>
-    <t>I_HIV_COV</t>
-  </si>
-  <si>
-    <t>L_OBESITYALGORITHM_COV</t>
-  </si>
-  <si>
-    <t>B_SICKLECELLALGORITHM_COV</t>
-  </si>
-  <si>
-    <t>I_COVID19HIST_COV</t>
-  </si>
-  <si>
-    <t>R_PE_AESI</t>
-  </si>
-  <si>
-    <t>C_HF_COV</t>
-  </si>
-  <si>
-    <t>N_TIA_AESI</t>
-  </si>
-  <si>
     <t>ROC20</t>
   </si>
   <si>
@@ -426,6 +439,12 @@
     <t>DP_COVOBESITY</t>
   </si>
   <si>
+    <t>Im_IMMUNODEFALLALGORITHM_COV</t>
+  </si>
+  <si>
+    <t>DP_IMMUNOSUPRESSANTSONLY</t>
+  </si>
+  <si>
     <t>Drug_proxie</t>
   </si>
   <si>
@@ -468,7 +487,22 @@
     <t>Antineoplasic agents</t>
   </si>
   <si>
-    <t>L01, L02B</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">L01, L02B, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>L02AE</t>
+    </r>
   </si>
   <si>
     <t>Cardio/cerebro vascular disease</t>
@@ -565,7 +599,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -588,6 +622,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -598,7 +647,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -623,6 +672,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,11 +987,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D760FD20-DA31-7D44-AA6E-1B0770159217}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -983,8 +1033,8 @@
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="E2" s="4" t="b">
+        <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -1006,8 +1056,8 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="F3" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1055,10 +1105,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1067,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1075,16 +1125,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -1098,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -1107,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1118,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1135,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1144,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1155,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1164,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1178,16 +1228,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1195,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -1207,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1224,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1238,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1261,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1278,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1295,19 +1345,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1315,19 +1365,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1338,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1355,7 +1405,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -1367,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1375,13 +1425,13 @@
         <v>26</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -1395,13 +1445,13 @@
         <v>27</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
       </c>
       <c r="D23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -1458,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1481,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1495,19 +1545,19 @@
         <v>32</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
       </c>
       <c r="D28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1515,7 +1565,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>
@@ -1544,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1575,7 +1625,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
         <v>0</v>
@@ -1587,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1595,16 +1645,16 @@
         <v>37</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1647,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1675,10 +1725,10 @@
         <v>41</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="b">
         <v>0</v>
@@ -1687,7 +1737,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1695,7 +1745,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
         <v>0</v>
@@ -1707,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1721,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1738,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -1747,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1798,16 +1848,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
       </c>
       <c r="E43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1818,16 +1868,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1854,11 +1904,41 @@
       <c r="A46" t="s">
         <v>50</v>
       </c>
+      <c r="B46" t="b">
+        <v>0</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>51</v>
       </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
@@ -1874,10 +1954,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1897,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1905,7 +1985,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
         <v>0</v>
@@ -1917,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1931,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1954,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -1965,7 +2045,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
         <v>0</v>
@@ -1977,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="F53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1985,13 +2065,13 @@
         <v>58</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
         <v>0</v>
       </c>
       <c r="D54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
@@ -2011,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2025,16 +2105,16 @@
         <v>60</v>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="b">
         <v>0</v>
@@ -2051,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="D57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2085,13 +2165,13 @@
         <v>63</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
         <v>0</v>
       </c>
       <c r="D59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
@@ -2111,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2162,7 +2242,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B63" t="b">
         <v>0</v>
@@ -2182,19 +2262,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" t="b">
         <v>0</v>
       </c>
       <c r="C64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="b">
         <v>0</v>
@@ -2202,16 +2282,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="b">
         <v>0</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
@@ -2222,10 +2302,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="b">
         <v>0</v>
@@ -2237,12 +2317,12 @@
         <v>0</v>
       </c>
       <c r="F66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" t="b">
         <v>1</v>
@@ -2257,41 +2337,41 @@
         <v>0</v>
       </c>
       <c r="F67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="b">
         <v>0</v>
       </c>
       <c r="D68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C69" t="b">
         <v>0</v>
       </c>
       <c r="D69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
@@ -2302,27 +2382,27 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="b">
         <v>0</v>
       </c>
       <c r="D70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B71" t="b">
         <v>0</v>
@@ -2331,21 +2411,21 @@
         <v>0</v>
       </c>
       <c r="D71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="b">
         <v>0</v>
@@ -2357,12 +2437,12 @@
         <v>0</v>
       </c>
       <c r="F72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B73" t="b">
         <v>1</v>
@@ -2382,10 +2462,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="b">
         <v>0</v>
@@ -2397,12 +2477,12 @@
         <v>0</v>
       </c>
       <c r="F74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="b">
         <v>1</v>
@@ -2422,7 +2502,7 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B76" t="b">
         <v>1</v>
@@ -2442,7 +2522,7 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B77" t="b">
         <v>1</v>
@@ -2457,12 +2537,12 @@
         <v>0</v>
       </c>
       <c r="F77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="b">
         <v>0</v>
@@ -2471,18 +2551,18 @@
         <v>0</v>
       </c>
       <c r="D78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="b">
         <v>0</v>
@@ -2491,18 +2571,18 @@
         <v>0</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B80" t="b">
         <v>0</v>
@@ -2511,21 +2591,21 @@
         <v>0</v>
       </c>
       <c r="D80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -2537,18 +2617,18 @@
         <v>0</v>
       </c>
       <c r="F81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -2562,10 +2642,10 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -2577,12 +2657,12 @@
         <v>0</v>
       </c>
       <c r="F83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="b">
         <v>0</v>
@@ -2591,30 +2671,30 @@
         <v>0</v>
       </c>
       <c r="D84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2622,10 +2702,10 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="b">
         <v>0</v>
@@ -2637,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2668,16 +2748,16 @@
         <v>0</v>
       </c>
       <c r="C88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2685,10 +2765,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
@@ -2714,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -2725,16 +2805,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -2745,16 +2825,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
       </c>
       <c r="E92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -2768,13 +2848,13 @@
         <v>0</v>
       </c>
       <c r="C93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D93" t="b">
-        <v>0</v>
-      </c>
-      <c r="E93" t="b">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E93" s="4" t="b">
+        <v>0</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -2788,13 +2868,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -2808,16 +2888,16 @@
         <v>0</v>
       </c>
       <c r="C95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" t="b">
         <v>0</v>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2828,16 +2908,16 @@
         <v>0</v>
       </c>
       <c r="C96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2845,16 +2925,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -2865,16 +2945,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -2891,17 +2971,17 @@
         <v>0</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="4" t="s">
+      <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" t="b">
@@ -2921,11 +3001,11 @@
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="4" t="s">
+      <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -2934,23 +3014,88 @@
         <v>0</v>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
+      </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
+      <c r="F102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75">
+      <c r="A103" t="s">
+        <v>106</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" t="b">
+        <v>0</v>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75">
+      <c r="A104" t="s">
+        <v>107</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F1" xr:uid="{D760FD20-DA31-7D44-AA6E-1B0770159217}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F104">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D84700-DED7-384E-8400-81ED0D9F0B97}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J67"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -2962,57 +3107,57 @@
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I2">
         <v>-10</v>
@@ -3023,25 +3168,25 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I3">
         <v>-10</v>
@@ -3052,25 +3197,25 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I4">
         <v>-10</v>
@@ -3081,25 +3226,25 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I5">
         <v>-10</v>
@@ -3110,25 +3255,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I6">
         <v>-10</v>
@@ -3139,25 +3284,25 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I7">
         <v>-10</v>
@@ -3168,1394 +3313,1742 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="D17" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" t="s">
-        <v>14</v>
-      </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B34" t="s">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B35" t="s">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B37" t="s">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B39" t="s">
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J40" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J42" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F44">
         <v>1</v>
       </c>
       <c r="G44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J44" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="F45">
         <v>1</v>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J45" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F47">
         <v>1</v>
       </c>
       <c r="G47" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J47" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J48" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="F49">
         <v>1</v>
       </c>
       <c r="G49" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J49" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D50" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J50" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="F51">
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H52" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I52" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J52" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="F53">
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H53" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I53" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J53" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F54">
         <v>1</v>
       </c>
       <c r="G54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H54" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I54" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J54" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="F55">
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J55" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
+      <c r="A56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>118</v>
+      </c>
+      <c r="H56" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" t="s">
+        <v>120</v>
+      </c>
+      <c r="J56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" t="s">
+        <v>120</v>
+      </c>
+      <c r="J57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>118</v>
+      </c>
+      <c r="H58" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" t="s">
+        <v>120</v>
+      </c>
+      <c r="J58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H59" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" t="s">
+        <v>120</v>
+      </c>
+      <c r="J59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75">
+      <c r="A60" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>118</v>
+      </c>
+      <c r="H60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75">
+      <c r="A61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>118</v>
+      </c>
+      <c r="H61" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" t="s">
+        <v>120</v>
+      </c>
+      <c r="J61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75">
+      <c r="A62" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" t="s">
+        <v>120</v>
+      </c>
+      <c r="J62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75">
+      <c r="A63" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>118</v>
+      </c>
+      <c r="H63" t="s">
+        <v>120</v>
+      </c>
+      <c r="I63" t="s">
+        <v>120</v>
+      </c>
+      <c r="J63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75">
+      <c r="A64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>118</v>
+      </c>
+      <c r="H64" t="s">
+        <v>120</v>
+      </c>
+      <c r="I64" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75">
+      <c r="A65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>118</v>
+      </c>
+      <c r="H65" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" t="s">
+        <v>120</v>
+      </c>
+      <c r="J65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" t="s">
+        <v>120</v>
+      </c>
+      <c r="I66" t="s">
+        <v>120</v>
+      </c>
+      <c r="J66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75">
+      <c r="A67" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>118</v>
+      </c>
+      <c r="H67" t="s">
+        <v>120</v>
+      </c>
+      <c r="I67" t="s">
+        <v>120</v>
+      </c>
+      <c r="J67" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4568,7 +5061,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -4583,13 +5076,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -4604,18 +5097,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -4632,13 +5125,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -4655,13 +5148,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -4676,15 +5169,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" t="s">
-        <v>143</v>
+        <v>147</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -4699,18 +5192,18 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -4725,18 +5218,18 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -4751,18 +5244,18 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -4777,18 +5270,18 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -4803,18 +5296,18 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -4829,18 +5322,18 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -4855,18 +5348,18 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -4881,18 +5374,18 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -4907,18 +5400,18 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -4933,18 +5426,18 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -4961,13 +5454,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -4984,13 +5477,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C17" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -5007,13 +5500,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C18" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -5030,13 +5523,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -5051,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5060,23 +5553,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100051A4D12AC31714A976EFB59A015589D" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="876903b67f5a06293251b97f50696a14">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8029070a-695f-410c-a424-24d0683063af" xmlns:ns3="797b3a1e-a17b-4ca2-8e72-b47fcb862c81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff1a23472d2e7dba40ac2b9190556273" ns2:_="" ns3:_="">
     <xsd:import namespace="8029070a-695f-410c-a424-24d0683063af"/>
@@ -5301,8 +5777,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Comments xmlns="8029070a-695f-410c-a424-24d0683063af" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{794DD23A-82BD-4D35-84D2-4A4CA4219C4A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB992FC7-134A-4A74-BD24-927602E5F1B7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5310,5 +5803,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB992FC7-134A-4A74-BD24-927602E5F1B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{794DD23A-82BD-4D35-84D2-4A4CA4219C4A}"/>
 </file>
--- a/p_parameters/archive_parameters/Variables_ALG_DP_ROC20_July22.xlsx
+++ b/p_parameters/archive_parameters/Variables_ALG_DP_ROC20_July22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cduransa/Documents/Utrecht/ROC20/WP3/CVM/Concepts/Codes/ROC20_27_July_2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{B4882D0B-1E25-6A41-BC52-F05044D856B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE6DC8F-CB36-471F-8078-2FB17A57EC88}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{B4882D0B-1E25-6A41-BC52-F05044D856B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C43FD1C-A27B-4B05-AF88-58020D9DBF43}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="1000" windowWidth="27640" windowHeight="15900" firstSheet="1" xr2:uid="{2506CD93-0285-9E44-BBDD-A2C4E77A0341}"/>
+    <workbookView xWindow="580" yWindow="1000" windowWidth="27640" windowHeight="15900" xr2:uid="{2506CD93-0285-9E44-BBDD-A2C4E77A0341}"/>
   </bookViews>
   <sheets>
     <sheet name="Variables" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="178">
   <si>
     <t>Varname</t>
   </si>
@@ -407,9 +407,6 @@
   </si>
   <si>
     <t>DP_COVSICKLE</t>
-  </si>
-  <si>
-    <t>C_MYOPERICARD_AESI</t>
   </si>
   <si>
     <t>DP_COVCARDIOCEREBROVAS</t>
@@ -672,7 +669,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,13 +988,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="35.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1108,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -1117,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3092,10 +3089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D84700-DED7-384E-8400-81ED0D9F0B97}">
-  <dimension ref="A1:J67"/>
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -3699,7 +3696,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>23</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -3728,7 +3725,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -3757,7 +3754,7 @@
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -3786,7 +3783,7 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -3815,7 +3812,7 @@
         <v>19</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -3844,7 +3841,7 @@
         <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -3873,7 +3870,7 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -3902,7 +3899,7 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -3931,7 +3928,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -3960,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3986,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -4018,7 +4015,7 @@
         <v>37</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -4044,10 +4041,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -4076,7 +4073,7 @@
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -4102,10 +4099,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -4134,7 +4131,7 @@
         <v>50</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -4163,7 +4160,7 @@
         <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -4189,10 +4186,10 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -4221,7 +4218,7 @@
         <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -4247,10 +4244,10 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -4279,7 +4276,7 @@
         <v>67</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -4308,7 +4305,7 @@
         <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -4337,7 +4334,7 @@
         <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4363,10 +4360,10 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -4395,7 +4392,7 @@
         <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -4421,10 +4418,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -4453,7 +4450,7 @@
         <v>92</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4476,13 +4473,13 @@
         <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4511,7 +4508,7 @@
         <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4537,10 +4534,10 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4569,7 +4566,7 @@
         <v>104</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -4598,7 +4595,7 @@
         <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -4621,13 +4618,13 @@
         <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -4656,7 +4653,7 @@
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -4674,7 +4671,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" ht="15.75">
       <c r="A55" t="s">
         <v>117</v>
       </c>
@@ -4682,10 +4679,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -4711,10 +4708,10 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -4740,10 +4737,10 @@
         <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -4769,11 +4766,11 @@
         <v>2</v>
       </c>
       <c r="C58" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" t="s">
         <v>132</v>
       </c>
-      <c r="D58" t="s">
-        <v>54</v>
-      </c>
       <c r="F58">
         <v>1</v>
       </c>
@@ -4791,17 +4788,17 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75">
-      <c r="A59" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" t="s">
-        <v>133</v>
+      <c r="A59" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -4830,7 +4827,7 @@
         <v>6</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -4859,7 +4856,7 @@
         <v>6</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -4888,7 +4885,7 @@
         <v>6</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -4917,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -4946,7 +4943,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -4964,7 +4961,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75">
+    <row r="65" spans="1:10">
       <c r="A65" s="4" t="s">
         <v>117</v>
       </c>
@@ -4975,7 +4972,7 @@
         <v>6</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -4993,7 +4990,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" ht="15.75">
       <c r="A66" s="4" t="s">
         <v>117</v>
       </c>
@@ -5004,7 +5001,7 @@
         <v>6</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -5019,35 +5016,6 @@
         <v>120</v>
       </c>
       <c r="J66" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75">
-      <c r="A67" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="s">
-        <v>118</v>
-      </c>
-      <c r="H67" t="s">
-        <v>120</v>
-      </c>
-      <c r="I67" t="s">
-        <v>120</v>
-      </c>
-      <c r="J67" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5060,7 +5028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB75E9F1-A72B-7F4F-8E60-3A2250FA444B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -5076,13 +5044,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
@@ -5097,18 +5065,18 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" t="s">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" t="s">
-        <v>140</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
@@ -5125,13 +5093,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
         <v>141</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>142</v>
-      </c>
-      <c r="C3" t="s">
-        <v>143</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -5148,13 +5116,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
         <v>144</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" t="s">
-        <v>146</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
@@ -5171,13 +5139,13 @@
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -5197,13 +5165,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
         <v>149</v>
-      </c>
-      <c r="C6" t="s">
-        <v>150</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -5223,13 +5191,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" t="s">
         <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>152</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -5249,13 +5217,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
         <v>153</v>
-      </c>
-      <c r="C8" t="s">
-        <v>154</v>
       </c>
       <c r="D8" t="b">
         <v>0</v>
@@ -5275,13 +5243,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
         <v>155</v>
-      </c>
-      <c r="C9" t="s">
-        <v>156</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -5301,13 +5269,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
         <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -5327,13 +5295,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
         <v>159</v>
-      </c>
-      <c r="C11" t="s">
-        <v>160</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -5356,10 +5324,10 @@
         <v>121</v>
       </c>
       <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
         <v>161</v>
-      </c>
-      <c r="C12" t="s">
-        <v>162</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -5379,13 +5347,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
         <v>163</v>
-      </c>
-      <c r="C13" t="s">
-        <v>164</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -5405,13 +5373,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
         <v>165</v>
-      </c>
-      <c r="C14" t="s">
-        <v>166</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
@@ -5431,13 +5399,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
         <v>167</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>168</v>
-      </c>
-      <c r="C15" t="s">
-        <v>169</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -5454,13 +5422,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" t="s">
         <v>170</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>171</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
@@ -5477,13 +5445,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B17" t="s">
         <v>173</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>174</v>
-      </c>
-      <c r="C17" t="s">
-        <v>175</v>
       </c>
       <c r="D17" t="b">
         <v>0</v>
@@ -5500,13 +5468,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
         <v>176</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>177</v>
-      </c>
-      <c r="C18" t="s">
-        <v>178</v>
       </c>
       <c r="D18" t="b">
         <v>0</v>
@@ -5523,13 +5491,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" t="s">
         <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
